--- a/storage/RO4A_TEMPLATE.xlsx
+++ b/storage/RO4A_TEMPLATE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\nrpcp\storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74152731-365C-4809-9927-2F8A7D07E883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="19" r:id="rId1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +732,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -746,6 +747,21 @@
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
     </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
